--- a/docs/vcpu/EL0-EL1.xlsx
+++ b/docs/vcpu/EL0-EL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2A1FF-7F65-4C15-8ADD-8A8EAF62AD5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F35779-1206-4115-855B-8A5BD06B4F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="205">
   <si>
     <t>MIDR_EL1</t>
   </si>
@@ -672,6 +672,10 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Reset</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1703,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1715,11 +1719,12 @@
     <col min="2" max="3" width="8.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.9140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="6"/>
+    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.9140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -1736,10 +1741,13 @@
         <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1753,11 +1761,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1771,11 +1780,12 @@
         <v>4</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1789,11 +1799,12 @@
         <v>6</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1807,9 +1818,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1823,9 +1835,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1839,9 +1852,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="7"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1855,9 +1869,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="7"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1871,9 +1886,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="7"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1887,9 +1903,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1903,9 +1920,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="7"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1919,9 +1937,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1935,9 +1954,10 @@
         <v>24</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1951,9 +1971,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1967,9 +1988,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1983,9 +2005,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1999,9 +2022,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2015,9 +2039,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2031,9 +2056,10 @@
         <v>36</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2047,9 +2073,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2063,9 +2090,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2079,9 +2107,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2124,10 @@
         <v>44</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2111,9 +2141,10 @@
         <v>46</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2127,9 +2158,10 @@
         <v>48</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2143,9 +2175,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -2159,9 +2192,10 @@
         <v>52</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2175,9 +2209,10 @@
         <v>54</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2191,9 +2226,10 @@
         <v>56</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -2207,9 +2243,10 @@
         <v>58</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2223,11 +2260,12 @@
         <v>60</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2243,9 +2281,10 @@
       <c r="E32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -2259,9 +2298,10 @@
         <v>65</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2275,9 +2315,10 @@
         <v>67</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2291,11 +2332,12 @@
         <v>69</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -2309,11 +2351,12 @@
         <v>71</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -2329,9 +2372,10 @@
       <c r="E37" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="7"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2347,9 +2391,10 @@
       <c r="E38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="7"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -2365,9 +2410,10 @@
       <c r="E39" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="7"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2381,9 +2427,10 @@
         <v>79</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="7"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2399,9 +2446,10 @@
       <c r="E41" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="7"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -2417,9 +2465,10 @@
       <c r="E42" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="7"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2435,9 +2484,10 @@
       <c r="E43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="7"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -2453,9 +2503,10 @@
       <c r="E44" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="7"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -2471,9 +2522,10 @@
       <c r="E45" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="7"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2487,11 +2539,12 @@
         <v>91</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2507,9 +2560,10 @@
       <c r="E47" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="7"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -2523,11 +2577,12 @@
         <v>95</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -2543,9 +2598,10 @@
       <c r="E49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="7"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -2561,9 +2617,10 @@
       <c r="E50" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="7"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -2579,9 +2636,10 @@
       <c r="E51" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="7"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -2597,9 +2655,10 @@
       <c r="E52" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="7"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
         <v>103</v>
       </c>
@@ -2615,9 +2674,10 @@
       <c r="E53" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="7"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -2631,11 +2691,12 @@
         <v>106</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -2649,9 +2710,10 @@
         <v>108</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="7"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -2665,9 +2727,10 @@
         <v>111</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="7"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -2681,9 +2744,10 @@
         <v>113</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="7"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -2697,9 +2761,10 @@
         <v>115</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="7"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2713,9 +2778,10 @@
         <v>117</v>
       </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="7"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -2729,9 +2795,10 @@
         <v>119</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="7"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -2745,9 +2812,10 @@
         <v>121</v>
       </c>
       <c r="E61" s="7"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="7"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -2761,9 +2829,10 @@
         <v>123</v>
       </c>
       <c r="E62" s="7"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="7"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -2777,9 +2846,10 @@
         <v>125</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="7"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2793,9 +2863,10 @@
         <v>127</v>
       </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="7"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -2809,9 +2880,10 @@
         <v>129</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="7"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2825,9 +2897,10 @@
         <v>131</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="7"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2841,9 +2914,10 @@
         <v>133</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="7"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2857,9 +2931,10 @@
         <v>135</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="7"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2873,9 +2948,10 @@
         <v>137</v>
       </c>
       <c r="E69" s="7"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="7"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2889,9 +2965,10 @@
         <v>139</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="7"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2905,9 +2982,10 @@
         <v>141</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="7"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2921,9 +2999,10 @@
         <v>143</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="7"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -2937,9 +3016,10 @@
         <v>145</v>
       </c>
       <c r="E73" s="7"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="7"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -2955,9 +3035,10 @@
       <c r="E74" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74" s="7"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -2971,11 +3052,12 @@
         <v>149</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7"/>
+      <c r="G75" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2989,9 +3071,10 @@
         <v>151</v>
       </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -3005,9 +3088,10 @@
         <v>153</v>
       </c>
       <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -3023,9 +3107,10 @@
       <c r="E78" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78" s="7"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -3041,9 +3126,10 @@
       <c r="E79" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="7"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -3059,9 +3145,10 @@
       <c r="E80" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="7"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -3077,9 +3164,10 @@
       <c r="E81" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="7"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -3095,9 +3183,10 @@
       <c r="E82" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="7"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -3113,9 +3202,10 @@
       <c r="E83" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="7"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -3131,9 +3221,10 @@
       <c r="E84" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="7"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -3149,9 +3240,10 @@
       <c r="E85" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="7"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -3167,9 +3259,10 @@
       <c r="E86" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" s="7"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -3183,11 +3276,12 @@
         <v>173</v>
       </c>
       <c r="E87" s="7"/>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="7"/>
+      <c r="G87" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -3201,9 +3295,10 @@
         <v>175</v>
       </c>
       <c r="E88" s="7"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" s="7"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -3217,9 +3312,10 @@
         <v>177</v>
       </c>
       <c r="E89" s="7"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89" s="7"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -3233,9 +3329,10 @@
         <v>179</v>
       </c>
       <c r="E90" s="7"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90" s="7"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -3249,9 +3346,10 @@
         <v>181</v>
       </c>
       <c r="E91" s="7"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91" s="7"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>202</v>
       </c>
@@ -3267,11 +3365,12 @@
       <c r="E92" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="7"/>
+      <c r="G92" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>183</v>
       </c>
@@ -3287,9 +3386,10 @@
       <c r="E93" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93" s="7"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>185</v>
       </c>
@@ -3303,13 +3403,14 @@
         <v>186</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F54:F73"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G54:G73"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="G92:G93"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/vcpu/EL0-EL1.xlsx
+++ b/docs/vcpu/EL0-EL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidekazu Kato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F35779-1206-4115-855B-8A5BD06B4F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11323CCA-6101-4578-AA39-C71FF654248C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4330" yWindow="0" windowWidth="16190" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EL0-EL1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="208">
   <si>
     <t>MIDR_EL1</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>System Register Enable Register for EL1</t>
-  </si>
-  <si>
-    <t>CNTKCTL_EL1</t>
   </si>
   <si>
     <t>Counter-timer Kernel Control register</t>
@@ -676,6 +673,28 @@
   </si>
   <si>
     <t>Reset</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0x00C50838</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CNTKCTL_EL1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Secure EL1用レジスタ</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1709,42 +1728,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="39.9140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1763,7 +1782,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1782,7 +1801,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1801,7 +1820,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2262,7 +2281,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2279,7 +2298,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
@@ -2334,7 +2353,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2353,7 +2372,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2370,9 +2389,11 @@
         <v>73</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2389,9 +2410,11 @@
         <v>75</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2408,9 +2431,11 @@
         <v>77</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2444,9 +2469,11 @@
         <v>81</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2463,9 +2490,11 @@
         <v>83</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2482,9 +2511,11 @@
         <v>85</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2501,9 +2532,11 @@
         <v>87</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2520,9 +2553,11 @@
         <v>89</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2541,7 +2576,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2558,9 +2593,11 @@
         <v>93</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2579,7 +2616,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2596,9 +2633,11 @@
         <v>97</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2615,9 +2654,11 @@
         <v>99</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2634,9 +2675,11 @@
         <v>101</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2653,9 +2696,11 @@
         <v>101</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2672,9 +2717,11 @@
         <v>101</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2693,7 +2740,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3021,26 +3068,28 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="7">
+        <v>32</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="7">
-        <v>32</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E74" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F74" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>104</v>
@@ -3049,26 +3098,26 @@
         <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>64</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="7">
-        <v>64</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -3076,16 +3125,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>64</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="7">
-        <v>64</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -3093,206 +3142,210 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="7">
+        <v>32</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="7">
-        <v>32</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E78" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="7">
+        <v>32</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="7">
-        <v>32</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E79" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="7">
+        <v>64</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="7">
-        <v>64</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E80" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="7">
+        <v>32</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="7">
-        <v>32</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E81" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="7">
+        <v>32</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="7">
-        <v>32</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E82" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="7">
+        <v>64</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="7">
-        <v>64</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E83" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="7">
+        <v>32</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="7">
-        <v>32</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="7">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="7">
-        <v>32</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="7">
+        <v>64</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="7">
-        <v>64</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>190</v>
-      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="7">
+        <v>32</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="7">
-        <v>32</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="7">
+        <v>32</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="7">
-        <v>32</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -3300,16 +3353,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="7">
+        <v>32</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="7">
-        <v>32</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -3317,16 +3370,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="7">
+        <v>64</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="7">
-        <v>64</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -3334,16 +3387,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="7">
+        <v>64</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="7">
-        <v>64</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3351,7 +3404,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>62</v>
@@ -3360,47 +3413,47 @@
         <v>64</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="7">
+        <v>64</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="7">
-        <v>64</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E93" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>64</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="7">
-        <v>64</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
